--- a/api/static/ReportTemplates/CentralPosting-template.xlsx
+++ b/api/static/ReportTemplates/CentralPosting-template.xlsx
@@ -1,56 +1,174 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob Yu\Desktop\TracCloud_v2\frontend\src\components\ReportGenerators\CentralPosting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yjinhong/Desktop/TracCloud_v2/api/static/ReportTemplates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EACED33-6332-4F4F-8EB6-5EB79156F1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE318ADD-55BE-7344-BE9A-1F081CAC9DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="3720" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3520" yWindow="820" windowWidth="26720" windowHeight="16900" xr2:uid="{8A5F4FCF-C974-4A47-8A01-B9EDA23E5041}"/>
   </bookViews>
   <sheets>
     <sheet name="Central Posting" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>Worker Protection Standard - Central Posting Form</t>
+  </si>
+  <si>
+    <t>Farm Name &amp; Address:</t>
+  </si>
+  <si>
+    <t>Farm</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Block(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pesticide Trade
+Name </t>
+  </si>
+  <si>
+    <t>Active
+Ingredient</t>
+  </si>
+  <si>
+    <t>EPA Registr.
+Number</t>
+  </si>
+  <si>
+    <t>Spray
+Date</t>
+  </si>
+  <si>
+    <t>Time Start</t>
+  </si>
+  <si>
+    <t>Time Finish</t>
+  </si>
+  <si>
+    <t>REI (hrs)</t>
+  </si>
+  <si>
+    <t>Re-entry Date</t>
+  </si>
+  <si>
+    <t>Re-entry Time</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="26"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -58,12 +176,228 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="2"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -79,6 +413,438 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Text Box 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59DCF3D1-AABD-3443-80D0-1A0BED787A37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3190875" y="1565275"/>
+          <a:ext cx="4956175" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFE1"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000"/>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t>Spray Application Information</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Text Box 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2AE262C-0559-8842-92FD-47772BE682E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8816975" y="1565275"/>
+          <a:ext cx="939800" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFE1"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000"/>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t>Safe Entry</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Text Box 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13F595F7-B6C2-064F-9C0D-28D83B2102E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="85725" y="1555750"/>
+          <a:ext cx="2698750" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFE1"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000"/>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t>Location &amp; Description of Treated Area</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Text Box 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FF5023B-E245-344B-B420-2281D6DF7991}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3190875" y="1565275"/>
+          <a:ext cx="4956175" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFE1"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000"/>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t>Spray Application Information</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Text Box 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38EE0BC3-85E6-5C44-AFC6-BAA7B4208422}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8816975" y="1565275"/>
+          <a:ext cx="939800" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFE1"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000"/>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t>Safe Entry</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Trac"/>
+      <sheetName val="NameAddress"/>
+      <sheetName val="Applicators"/>
+      <sheetName val="SiteLists"/>
+      <sheetName val="ChemTable"/>
+      <sheetName val="ChemHelp"/>
+      <sheetName val="RestrictedPurchases"/>
+      <sheetName val="SprayData"/>
+      <sheetName val="CentralPosting"/>
+      <sheetName val="FertData"/>
+      <sheetName val="HarvestData"/>
+      <sheetName val="Lookups"/>
+      <sheetName val="ApplicatorReport-26"/>
+      <sheetName val="Applicators-26A"/>
+      <sheetName val="RecordKeeping-26"/>
+      <sheetName val="PrivAppRecord"/>
+      <sheetName val="GenericForm"/>
+      <sheetName val="BirdsEye&amp;Others"/>
+      <sheetName val="Cliffstar&amp;WestfieldMaid"/>
+      <sheetName val="Knouse"/>
+      <sheetName val="GLOBALGAP"/>
+      <sheetName val="Blueberry IPM Elements"/>
+      <sheetName val="Raspberry IPM Elements"/>
+      <sheetName val="Strawberry IPM Elements"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="Sheet10.ButtonPrintSelected_Click"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -98,7 +864,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -110,7 +876,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -157,6 +923,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -192,6 +975,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -343,15 +1143,597 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A7061B-B2A1-E844-9BFE-3D31EDCB8795}">
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="3" customWidth="1"/>
+    <col min="3" max="4" width="6.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="3" customWidth="1"/>
+    <col min="9" max="10" width="6.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="7.83203125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="7.5" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="8.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" ht="47.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="31"/>
+      <c r="O5" s="32"/>
+    </row>
+    <row r="6" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="31"/>
+    </row>
+    <row r="8" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="31"/>
+    </row>
+    <row r="9" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="22"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="31"/>
+    </row>
+    <row r="10" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="31"/>
+    </row>
+    <row r="11" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="31"/>
+    </row>
+    <row r="12" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="31"/>
+    </row>
+    <row r="13" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="31"/>
+    </row>
+    <row r="14" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="31"/>
+    </row>
+    <row r="15" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="31"/>
+    </row>
+    <row r="16" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="31"/>
+    </row>
+    <row r="17" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="31"/>
+    </row>
+    <row r="18" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="31"/>
+    </row>
+    <row r="19" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="31"/>
+    </row>
+    <row r="20" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="31"/>
+    </row>
+    <row r="21" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="22"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="31"/>
+    </row>
+    <row r="22" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="31"/>
+    </row>
+    <row r="23" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="31"/>
+    </row>
+    <row r="24" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="31"/>
+    </row>
+    <row r="25" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="22"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="31"/>
+    </row>
+    <row r="26" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="22"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="31"/>
+    </row>
+    <row r="27" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="22"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="31"/>
+    </row>
+    <row r="28" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="31"/>
+    </row>
+    <row r="29" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="22"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="31"/>
+    </row>
+    <row r="30" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="22"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="31"/>
+    </row>
+    <row r="31" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="22"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="31"/>
+    </row>
+    <row r="32" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="22"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="31"/>
+    </row>
+    <row r="33" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="22"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="L2:M2"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 K4" xr:uid="{BAD1E233-A0BF-1048-9E0F-324D5CBDF3B9}"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>